--- a/AI Task Allocation.xlsx
+++ b/AI Task Allocation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="42">
   <si>
     <t>MẪU PHÂN CÔNG CÔNG VIỆC</t>
   </si>
@@ -48,86 +48,110 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>Công việc 1</t>
-  </si>
-  <si>
     <t>Cả nhóm</t>
   </si>
   <si>
     <t>ĐÃ XONG</t>
   </si>
   <si>
-    <t>21-03-2017</t>
+    <t>Tạo HomeFragment</t>
   </si>
   <si>
-    <t>20-03-2017</t>
+    <t>Thành</t>
   </si>
   <si>
-    <t>Công  việc 2</t>
+    <t>Tạo NoteAdditionActivity</t>
   </si>
   <si>
-    <t>...</t>
+    <t>Thuận</t>
   </si>
   <si>
-    <t>Viết lớp A1</t>
+    <t>Tạo TaskFragment</t>
   </si>
   <si>
-    <t>Nam</t>
+    <t>Tạo RemindFragment</t>
   </si>
   <si>
-    <t>Viết lớp A2</t>
+    <t>Tạo RemindNoteAddtionActivity</t>
   </si>
   <si>
-    <t>Tung</t>
+    <t>Tạo TaskNoteAdditionActivity</t>
   </si>
   <si>
-    <t>ĐANG LÀM</t>
+    <t>Tạo RecycleBinFragment</t>
   </si>
   <si>
-    <t>23-03-2017</t>
+    <t>Tạo DeleteNoteActivity</t>
   </si>
   <si>
-    <t>Tải dữ liệu</t>
+    <t>Tạo SearchActivity</t>
   </si>
   <si>
-    <t>Son</t>
+    <t>Chức năng hiển thị thông báo và hiển thị activity khi đến thời điểm đã hẹn giờ:</t>
   </si>
   <si>
-    <t>Dữ liệu</t>
+    <t>Tạo AlarmReceiver</t>
   </si>
   <si>
-    <t>Son, Tung,...</t>
+    <t>Tạo NotificationHelper</t>
   </si>
   <si>
-    <t>Chức năng 1</t>
+    <t>Tạo AlarmActivity</t>
   </si>
   <si>
-    <t>Layout</t>
+    <t>Chức năng vuốt để xóa ghi chú</t>
   </si>
   <si>
-    <t>Code logic</t>
+    <t>Tạo SwipeToDeleteCallBack</t>
   </si>
   <si>
-    <t>Chức năng 2</t>
+    <t>Tạo TaskAdapter</t>
   </si>
   <si>
-    <t>Bỏ qua</t>
+    <t>Tạo NoteAdapter</t>
   </si>
   <si>
-    <t>Chức năng khó quá không cần thiết</t>
+    <t>17/11/2019</t>
   </si>
   <si>
-    <t>Chức năng n</t>
+    <t>25/11/2019</t>
   </si>
   <si>
-    <t>Kiểm thử + Sửa lỗi ...</t>
+    <t>29/11/2019</t>
+  </si>
+  <si>
+    <t>Thuận: Layout; Thành: Code java</t>
+  </si>
+  <si>
+    <t>Thuận: Layout, Thành: Code java</t>
+  </si>
+  <si>
+    <t>Ban đầu hoàn thành sau đó thêm tính năng chọn màu</t>
+  </si>
+  <si>
+    <t>Tạo TTNDatabase</t>
+  </si>
+  <si>
+    <t>15/11/2019</t>
+  </si>
+  <si>
+    <t>Update liên tục cho phù hợp từng loại list</t>
+  </si>
+  <si>
+    <t>Update liên tục cho mỗi câu truy vấn, thêm, update cho từng loại note</t>
+  </si>
+  <si>
+    <t>13/12/2019</t>
+  </si>
+  <si>
+    <t>Tạo AboutUsActivity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -146,8 +170,20 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,18 +204,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -189,51 +219,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -241,33 +236,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,10 +567,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z993"/>
+  <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="A1:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -564,21 +580,21 @@
     <col min="4" max="4" width="16.109375" customWidth="1"/>
     <col min="5" max="5" width="19.5546875" customWidth="1"/>
     <col min="6" max="7" width="20.44140625" customWidth="1"/>
-    <col min="8" max="8" width="32" customWidth="1"/>
+    <col min="8" max="8" width="46.88671875" customWidth="1"/>
     <col min="9" max="9" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -598,28 +614,28 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="1"/>
@@ -641,26 +657,28 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
+      <c r="B3" s="6" t="s">
+        <v>29</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
+      <c r="F3" s="10" t="s">
+        <v>37</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>12</v>
+      <c r="G3" s="10" t="s">
+        <v>32</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>13</v>
+      <c r="H3" s="6" t="s">
+        <v>38</v>
       </c>
-      <c r="H3" s="5"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -680,18 +698,24 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2</v>
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>36</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -711,26 +735,26 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>3</v>
+      <c r="A5" s="5">
+        <v>2</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>12</v>
+      <c r="E5" s="9" t="s">
+        <v>10</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="F5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="7"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -750,24 +774,26 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>4</v>
+      <c r="A6" s="5">
+        <v>3</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
+      <c r="B6" s="8" t="s">
+        <v>13</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8" t="s">
+        <v>12</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>20</v>
+      <c r="E6" s="9" t="s">
+        <v>10</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
+      <c r="F6" s="10" t="s">
+        <v>30</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="G6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -787,20 +813,22 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>5</v>
+      <c r="A7" s="5">
+        <v>4</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
-        <v>22</v>
+      <c r="B7" s="6" t="s">
+        <v>28</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>23</v>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10" t="s">
+        <v>31</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="G7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="7"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -820,24 +848,26 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>6</v>
+      <c r="A8" s="5">
+        <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>24</v>
+      <c r="B8" s="11" t="s">
+        <v>15</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>25</v>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8" t="s">
+        <v>14</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>20</v>
+      <c r="E8" s="9" t="s">
+        <v>10</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>21</v>
+      <c r="F8" s="10" t="s">
+        <v>31</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="G8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="7"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -857,18 +887,26 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>7</v>
+      <c r="A9" s="5">
+        <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>26</v>
+      <c r="B9" s="8" t="s">
+        <v>18</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="7"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -888,20 +926,26 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>8</v>
+      <c r="A10" s="5">
+        <v>7</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>27</v>
+      <c r="B10" s="8" t="s">
+        <v>16</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>19</v>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8" t="s">
+        <v>14</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="E10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="7"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -921,20 +965,26 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>9</v>
+      <c r="A11" s="5">
+        <v>8</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
-        <v>28</v>
+      <c r="B11" s="8" t="s">
+        <v>17</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>23</v>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8" t="s">
+        <v>14</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="E11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="7"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -953,19 +1003,29 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
-        <v>15</v>
+      <c r="F12" s="10" t="s">
+        <v>32</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="G12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="7"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -984,23 +1044,29 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>11</v>
+    <row r="13" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>10</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>29</v>
+      <c r="B13" s="8" t="s">
+        <v>20</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="C13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="E13" s="9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5" t="s">
-        <v>31</v>
+      <c r="F13" s="10" t="s">
+        <v>32</v>
       </c>
+      <c r="G13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="7"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1019,17 +1085,29 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>12</v>
+    <row r="14" spans="1:26" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>11</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="14">
+        <v>43567</v>
+      </c>
+      <c r="G14" s="14">
+        <v>43597</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1048,17 +1126,21 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>13</v>
+    <row r="15" spans="1:26" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>12</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="B15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1078,18 +1160,24 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>32</v>
+      <c r="E16" s="9" t="s">
+        <v>10</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="F16" s="14">
+        <v>43750</v>
+      </c>
+      <c r="G16" s="14">
+        <v>43750</v>
+      </c>
+      <c r="H16" s="7"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1110,13 +1198,23 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="B17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="14">
+        <v>43750</v>
+      </c>
+      <c r="G17" s="14">
+        <v>43750</v>
+      </c>
+      <c r="H17" s="7"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1135,17 +1233,25 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="5" t="s">
-        <v>33</v>
+      <c r="B18" s="8" t="s">
+        <v>25</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="14">
+        <v>43750</v>
+      </c>
+      <c r="G18" s="14">
+        <v>43750</v>
+      </c>
+      <c r="H18" s="7"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1164,16 +1270,19 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>13</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="7"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1193,15 +1302,24 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="14">
+        <v>43811</v>
+      </c>
+      <c r="G20" s="14">
+        <v>43811</v>
+      </c>
+      <c r="H20" s="7"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1221,14 +1339,26 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="A21" s="5">
+        <v>14</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="7"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -28464,10 +28594,67 @@
       <c r="Y993" s="1"/>
       <c r="Z993" s="1"/>
     </row>
+    <row r="994" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A994" s="1"/>
+      <c r="B994" s="1"/>
+      <c r="C994" s="1"/>
+      <c r="D994" s="1"/>
+      <c r="E994" s="1"/>
+      <c r="F994" s="1"/>
+      <c r="G994" s="1"/>
+      <c r="H994" s="1"/>
+      <c r="I994" s="1"/>
+      <c r="J994" s="1"/>
+      <c r="K994" s="1"/>
+      <c r="L994" s="1"/>
+      <c r="M994" s="1"/>
+      <c r="N994" s="1"/>
+      <c r="O994" s="1"/>
+      <c r="P994" s="1"/>
+      <c r="Q994" s="1"/>
+      <c r="R994" s="1"/>
+      <c r="S994" s="1"/>
+      <c r="T994" s="1"/>
+      <c r="U994" s="1"/>
+      <c r="V994" s="1"/>
+      <c r="W994" s="1"/>
+      <c r="X994" s="1"/>
+      <c r="Y994" s="1"/>
+      <c r="Z994" s="1"/>
+    </row>
+    <row r="995" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A995" s="1"/>
+      <c r="B995" s="1"/>
+      <c r="C995" s="1"/>
+      <c r="D995" s="1"/>
+      <c r="E995" s="1"/>
+      <c r="F995" s="1"/>
+      <c r="G995" s="1"/>
+      <c r="H995" s="1"/>
+      <c r="I995" s="1"/>
+      <c r="J995" s="1"/>
+      <c r="K995" s="1"/>
+      <c r="L995" s="1"/>
+      <c r="M995" s="1"/>
+      <c r="N995" s="1"/>
+      <c r="O995" s="1"/>
+      <c r="P995" s="1"/>
+      <c r="Q995" s="1"/>
+      <c r="R995" s="1"/>
+      <c r="S995" s="1"/>
+      <c r="T995" s="1"/>
+      <c r="U995" s="1"/>
+      <c r="V995" s="1"/>
+      <c r="W995" s="1"/>
+      <c r="X995" s="1"/>
+      <c r="Y995" s="1"/>
+      <c r="Z995" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AI Task Allocation.xlsx
+++ b/AI Task Allocation.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="42">
-  <si>
-    <t>MẪU PHÂN CÔNG CÔNG VIỆC</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
   <si>
     <t>TT</t>
   </si>
@@ -146,12 +143,15 @@
   <si>
     <t>Tạo AboutUsActivity</t>
   </si>
+  <si>
+    <t>BẢNG PHÂN CÔNG CÔNG VIỆC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -175,15 +175,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,12 +193,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
         <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -236,15 +223,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -278,10 +259,13 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,7 +554,7 @@
   <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="A1:H21"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -585,16 +569,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
+      <c r="A1" s="14" t="s">
+        <v>41</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -614,29 +598,29 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -657,27 +641,27 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>29</v>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
-        <v>14</v>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>10</v>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -698,23 +682,23 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
-        <v>36</v>
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>35</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6" t="s">
-        <v>14</v>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10" t="s">
-        <v>30</v>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8" t="s">
+        <v>29</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>32</v>
+      <c r="G4" s="8" t="s">
+        <v>31</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>39</v>
+      <c r="H4" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -735,26 +719,26 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8" t="s">
-        <v>12</v>
+      <c r="E5" s="7" t="s">
+        <v>9</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>10</v>
+      <c r="F5" s="8" t="s">
+        <v>29</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>30</v>
+      <c r="G5" s="8" t="s">
+        <v>29</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="5"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -774,26 +758,26 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>10</v>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>30</v>
+      <c r="E6" s="7" t="s">
+        <v>9</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>30</v>
+      <c r="F6" s="8" t="s">
+        <v>29</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="G6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="5"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -813,22 +797,22 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>28</v>
+      <c r="B7" s="4" t="s">
+        <v>27</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10" t="s">
-        <v>31</v>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8" t="s">
+        <v>30</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>31</v>
+      <c r="G7" s="8" t="s">
+        <v>30</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="5"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -848,26 +832,26 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>10</v>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>31</v>
+      <c r="E8" s="7" t="s">
+        <v>9</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>31</v>
+      <c r="F8" s="8" t="s">
+        <v>30</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="G8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="5"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -887,26 +871,26 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>18</v>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8" t="s">
-        <v>14</v>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>13</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>10</v>
+      <c r="E9" s="7" t="s">
+        <v>9</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>31</v>
+      <c r="F9" s="8" t="s">
+        <v>30</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>31</v>
+      <c r="G9" s="8" t="s">
+        <v>30</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="5"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -926,26 +910,26 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>16</v>
+      <c r="B10" s="6" t="s">
+        <v>15</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8" t="s">
-        <v>14</v>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
+        <v>13</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>10</v>
+      <c r="E10" s="7" t="s">
+        <v>9</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>31</v>
+      <c r="F10" s="8" t="s">
+        <v>30</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>31</v>
+      <c r="G10" s="8" t="s">
+        <v>30</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="5"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -965,26 +949,26 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>17</v>
+      <c r="B11" s="6" t="s">
+        <v>16</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8" t="s">
-        <v>14</v>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>13</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>10</v>
+      <c r="E11" s="7" t="s">
+        <v>9</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>31</v>
+      <c r="F11" s="8" t="s">
+        <v>30</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>31</v>
+      <c r="G11" s="8" t="s">
+        <v>30</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="5"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1004,28 +988,28 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>19</v>
+      <c r="B12" s="6" t="s">
+        <v>18</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>33</v>
+      <c r="C12" s="10" t="s">
+        <v>32</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>10</v>
+      <c r="F12" s="8" t="s">
+        <v>31</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>32</v>
+      <c r="G12" s="8" t="s">
+        <v>31</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="5"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1045,28 +1029,28 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>20</v>
+      <c r="B13" s="6" t="s">
+        <v>19</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>34</v>
+      <c r="C13" s="10" t="s">
+        <v>33</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>10</v>
+      <c r="F13" s="8" t="s">
+        <v>31</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>32</v>
+      <c r="G13" s="8" t="s">
+        <v>31</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="5"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1086,27 +1070,27 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="A14" s="11">
         <v>11</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>21</v>
+      <c r="B14" s="6" t="s">
+        <v>20</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8" t="s">
-        <v>14</v>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6" t="s">
+        <v>13</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>10</v>
+      <c r="E14" s="7" t="s">
+        <v>9</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="12">
         <v>43567</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="12">
         <v>43597</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>35</v>
+      <c r="H14" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1127,20 +1111,22 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>22</v>
+      <c r="B15" s="10" t="s">
+        <v>21</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8" t="s">
-        <v>14</v>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6" t="s">
+        <v>13</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1160,24 +1146,24 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="8" t="s">
-        <v>23</v>
+      <c r="A16" s="3"/>
+      <c r="B16" s="6" t="s">
+        <v>22</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8" t="s">
-        <v>14</v>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6" t="s">
+        <v>13</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>10</v>
+      <c r="E16" s="7" t="s">
+        <v>9</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="12">
         <v>43750</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="12">
         <v>43750</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="5"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1197,24 +1183,24 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="8" t="s">
-        <v>24</v>
+      <c r="A17" s="3"/>
+      <c r="B17" s="6" t="s">
+        <v>23</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8" t="s">
-        <v>14</v>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6" t="s">
+        <v>13</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>10</v>
+      <c r="E17" s="7" t="s">
+        <v>9</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="12">
         <v>43750</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="12">
         <v>43750</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="5"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1234,24 +1220,24 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="8" t="s">
-        <v>25</v>
+      <c r="A18" s="3"/>
+      <c r="B18" s="6" t="s">
+        <v>24</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8" t="s">
-        <v>14</v>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6" t="s">
+        <v>13</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>10</v>
+      <c r="E18" s="7" t="s">
+        <v>9</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="12">
         <v>43750</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="12">
         <v>43750</v>
       </c>
-      <c r="H18" s="7"/>
+      <c r="H18" s="5"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1271,18 +1257,20 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>13</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>26</v>
+      <c r="B19" s="6" t="s">
+        <v>25</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="7"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="5"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1302,24 +1290,24 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="8" t="s">
-        <v>27</v>
+      <c r="A20" s="11"/>
+      <c r="B20" s="6" t="s">
+        <v>26</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8" t="s">
-        <v>14</v>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6" t="s">
+        <v>13</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>10</v>
+      <c r="E20" s="7" t="s">
+        <v>9</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="12">
         <v>43811</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="12">
         <v>43811</v>
       </c>
-      <c r="H20" s="7"/>
+      <c r="H20" s="5"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1339,26 +1327,26 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>14</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="14" t="s">
+      <c r="B21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="14" t="s">
-        <v>40</v>
+      <c r="C21" s="5"/>
+      <c r="D21" s="4" t="s">
+        <v>11</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="E21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="5"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
